--- a/CompaniesInChennai_V1.1.xlsx
+++ b/CompaniesInChennai_V1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ChennaiCompaniesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46234E5D-6007-45DF-A212-C1625EFB5D90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EDC8DA-11C4-46ED-80F0-254ACB1480F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2636,7 +2636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8191,6 +8191,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A178:I178"/>
+    <mergeCell ref="A181:I181"/>
+    <mergeCell ref="A188:I188"/>
+    <mergeCell ref="A195:I195"/>
+    <mergeCell ref="A239:I239"/>
+    <mergeCell ref="A209:I209"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A141:I141"/>
+    <mergeCell ref="A147:I147"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A96:I96"/>
     <mergeCell ref="A161:I161"/>
     <mergeCell ref="A165:I165"/>
     <mergeCell ref="A169:I169"/>
@@ -8200,22 +8216,6 @@
     <mergeCell ref="A133:I133"/>
     <mergeCell ref="A159:I159"/>
     <mergeCell ref="A156:I156"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A96:I96"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A141:I141"/>
-    <mergeCell ref="A147:I147"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A178:I178"/>
-    <mergeCell ref="A181:I181"/>
-    <mergeCell ref="A188:I188"/>
-    <mergeCell ref="A195:I195"/>
-    <mergeCell ref="A239:I239"/>
-    <mergeCell ref="A209:I209"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
